--- a/pred_ohlcv/54_21/2019-10-25 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 DAC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-645308.4743</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-363362.7603</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-598770.6123</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-727780.0173000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-424747.9223000001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-723862.7073000001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-478919.8133000002</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-727591.7643000002</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-727591.7643000002</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-727591.7643000002</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-418544.3993000002</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-714702.8943000002</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-466951.1653000002</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-466951.1653000002</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-466951.1653000002</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-723789.1843000002</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-877779.6053000002</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-372835.9403000002</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-494555.4973000002</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-494555.4973000002</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-177597.4943000001</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-177597.4943000001</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-177597.4943000001</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-405966.7253000002</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-405966.7253000002</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-86397.45530000015</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>90755.51969999986</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>90755.51969999986</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>90755.51969999986</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-171951.7633000001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-50077.17530000013</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-268049.1743000001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>115030.9926999999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-147577.1803000001</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-147577.1803000001</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-441332.1143000001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-167258.0143000002</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-308722.7683000001</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-308722.7683000001</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>14595.50169999991</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>14595.50169999991</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-47293.77830000006</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-47293.77830000006</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-354259.8873000001</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-354259.8873000001</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-354259.8873000001</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-95745.23730000007</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-95745.23730000007</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-373764.2743</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>73449.39669999992</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>73449.39669999992</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-186098.1903000001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1617273.3657</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1329143.5527</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1431704.5243</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1676134.3715</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1511647.4717</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1511647.4717</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1491592.0457</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1499719.0457</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1286144.7587</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-869678.2227</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1346168.3892</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1046126.9492</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1168287.0712</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-850609.9092000001</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-736159.4542000002</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1253518.6107</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1532571.5527</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1532571.5527</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1558250.8231</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1556944.7783</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1140682.6319</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1409122.8253</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1175357.5738</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-832988.0491000002</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1085908.7041</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-766800.8071000002</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1039360.0581</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-835721.8331000003</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1015830.5671</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-612033.6631000004</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-770124.2611000004</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-622122.3632000004</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-622122.3632000004</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-47849.2988000004</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>217898.2891999996</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>529229.9306999997</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>529229.9306999997</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>792023.2102999997</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>918832.6192999997</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>918832.6192999997</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1227028.9533</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>994638.4542999996</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>994638.4542999996</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>994638.4542999996</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>720519.2482999996</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1009839.4883</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1167280.2978</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1475161.5939</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1160445.503899999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1160445.503899999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1438567.3069</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1526875.0829</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1309172.6699</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1309172.6699</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1309172.6699</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1602295.9489</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1336845.7809</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1558150.7009</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1558150.7009</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1683161.7629</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1082360.5549</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1358679.9609</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1043757.0639</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1467758.3029</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1764799.9479</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1764799.9479</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1764799.9479</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1498479.9349</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1138219.9619</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1257234.5819</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>972620.3308999997</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>972620.3308999997</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1297237.7099</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1439832.9069</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1533416.3836</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1659560.0606</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1392984.153599999</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1134423.981599999</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>821625.1185999993</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>821625.1185999993</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1041625.118599999</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-700175.0399000006</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-694969.8977778121</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-735252.1167778121</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1070627.501777812</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-612484.3619778121</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-535433.0039778121</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-535433.0039778121</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-779161.8259778122</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1029809.235977812</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-708932.0169778122</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-708932.0169778122</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-983953.5609778122</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-722146.2639778121</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-979303.1469778122</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-979303.1469778122</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1415964.993177812</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1024931.567177812</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-710609.791177812</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-991047.458177812</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-737372.5031778121</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-933031.7311778121</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-933031.7311778121</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-933031.7311778121</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-649843.2491778121</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1006135.632177812</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-711703.507177812</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-909683.599177812</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1172203.365177812</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1112429.449177812</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1370481.244177812</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1370481.244177812</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1370481.244177812</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1655427.982177812</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1413213.154177812</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1710103.857177812</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2139656.109177812</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1810252.398677812</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1570560.735677812</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1659149.289677812</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1348399.266677812</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1087144.703677812</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1386688.874677812</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1032322.402777812</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1761189.362677812</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1430316.539277812</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1308656.932277811</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-853137.0102778114</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1110384.748277811</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-865627.6912778113</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-585234.4182778113</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-631380.3002778112</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-525482.6352778112</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-790208.8132778113</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-517907.0132778113</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-245380.0522778113</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>42486.4328221887</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>163636.1061221887</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-19265.72687781134</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-306098.0288778114</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-143666.4658778114</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-195419.5458778114</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-49883.54787781139</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>122566.8251221886</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-47338.78727781141</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>214646.8337221886</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>565722.6410221886</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>298645.2030221886</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>582457.2670221885</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>582457.2670221885</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>451668.7250221885</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>728297.5540221885</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>406594.8800221885</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>651539.6660221885</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>345866.2800221885</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>539999.4250221885</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>839660.9920221885</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>1501330.595722188</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>1228551.096622189</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1113744.667322189</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>663591.5102221889</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>687235.9502221888</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>435617.7972221888</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>729662.3342221889</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>467984.9582221889</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>194263.5682221889</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>438563.5312221889</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>866242.2192221889</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>866242.2192221889</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>1163998.633222189</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>1451027.924222189</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>1232715.471222189</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>1232715.471222189</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>993485.9162221889</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>1359840.614222189</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>1061840.476222189</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>1061840.476222189</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>768206.7822221889</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>920713.4912221889</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>704012.4620221889</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>432549.6620221889</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>590257.806022189</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>154616.663022189</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>419803.036022189</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>285995.803022189</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-193836.863977811</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-186630.255177811</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-193652.831477811</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-87568.728477811</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-367252.106877811</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-430856.683277811</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-115591.141277811</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-115591.141277811</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-381743.542277811</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-743194.5182778111</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-1753999.475377811</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-1982920.158377812</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-1982920.158377812</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-2219761.640977813</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-2219761.640977813</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-2478723.758877813</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-2383732.889877813</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-2376250.267777813</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-2685031.496277813</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-3141188.609277813</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-3141188.609277813</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-3141188.609277813</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-3141188.609277813</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-2981030.367277813</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-2981030.367277813</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-2654094.992277813</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-2654094.992277813</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-2654094.992277813</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-2365694.160277813</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-2556291.579277813</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-2279737.099277813</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-2321504.099277813</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-2056163.128277814</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-2056163.128277814</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-2094449.699577814</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-1824195.213477814</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-1824195.213477814</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-2131217.965777813</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-1982567.122777814</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-1982567.122777814</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-2106310.104777813</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-2241680.671177813</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-2101453.142177813</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-2753174.049277813</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-2440789.219977813</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-2047137.777277813</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-2246139.551277813</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-2373897.717277813</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-2028978.798277813</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-2301284.194277813</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-2127727.523277813</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-2019490.529277813</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-2008384.602877813</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-1627436.450577813</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-1809447.704577813</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-1593711.685577813</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-1593711.685577813</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-1433836.696577813</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-1949101.039577812</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-1949101.039577812</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-1949101.039577812</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-1666708.182577812</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-1912133.305577812</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-1586486.287577812</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-1749332.123577812</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-1688957.873577812</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-1559930.707577812</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-1350198.014577812</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-1586828.719577813</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-1633127.163577813</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-1620631.935577813</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-1443422.199577813</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-1443422.199577813</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-1395780.169577813</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-1109978.170577813</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-1368301.125577813</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-1251572.680577813</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-1251572.680577813</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-875304.9025778128</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-1257026.705577813</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-1509841.213577813</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-1357345.251577813</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-1608446.074577813</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-1608446.074577813</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-1956136.004577813</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-2307966.242577813</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-2339608.569577813</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-2200671.255577813</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-2200671.255577813</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-2721083.251577813</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-3065631.589577813</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-2789124.237577813</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-3059387.151577813</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-2762007.596577813</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-2994264.618577813</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-3176982.192577813</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-3176982.192577813</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-2948865.647577813</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-3254738.703577813</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-2952335.261577813</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-2952335.261577813</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-2652742.413577813</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-2823718.823577813</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-2496924.947577813</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-2244852.251577813</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-2163830.819577813</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-2163830.819577813</v>
       </c>
       <c r="H932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-2314232.924577813</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-2314232.924577813</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-2314232.924577813</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-2314232.924577813</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-2549881.355577813</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-2347524.758577813</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-2585633.216577813</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-2342433.271577813</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-2522662.246577813</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-2522662.246577813</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-2522662.246577813</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-2326842.312577813</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-2810690.760577813</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-2504345.836577813</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-3088454.501577813</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-2803806.716577813</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-2970694.386577813</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-3244126.426577813</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-3239166.426577813</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-3713485.326577813</v>
       </c>
       <c r="H961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-3950533.153577813</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-3614359.001577813</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-3614359.001577813</v>
       </c>
       <c r="H964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-3927028.500577813</v>
       </c>
       <c r="H965">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-3677836.520577813</v>
       </c>
       <c r="H966">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-3955217.648577813</v>
       </c>
       <c r="H967">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-3647430.996577813</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-3183516.507577813</v>
       </c>
       <c r="H969">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-3183516.507577813</v>
       </c>
       <c r="H970">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-3277542.248577813</v>
       </c>
       <c r="H971">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-3002180.087577813</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-3198952.367577813</v>
       </c>
       <c r="H973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-3457016.380577813</v>
       </c>
       <c r="H974">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-3114100.394577813</v>
       </c>
       <c r="H975">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-3114100.394577813</v>
       </c>
       <c r="H976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-3114100.394577813</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-3329501.371577813</v>
       </c>
       <c r="H978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-2946446.355577813</v>
       </c>
       <c r="H979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-3209114.072577813</v>
       </c>
       <c r="H980">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-3140031.835577813</v>
       </c>
       <c r="H981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-3455282.467577813</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-3759369.601577813</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-3538166.640577813</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-3803707.229577813</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-3803707.229577813</v>
       </c>
       <c r="H986">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-4116553.345577813</v>
       </c>
       <c r="H987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-4116553.345577813</v>
       </c>
       <c r="H988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-3857013.884577813</v>
       </c>
       <c r="H989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-4185901.640577813</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-4057313.664577813</v>
       </c>
       <c r="H991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-4403549.843577813</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H993">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H994">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H995">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-4078726.134577813</v>
       </c>
       <c r="H999">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-3795900.256577813</v>
       </c>
       <c r="H1002">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-4034292.060577813</v>
       </c>
       <c r="H1003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-3750313.671577813</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-3750313.671577813</v>
       </c>
       <c r="H1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-3730383.671577813</v>
       </c>
       <c r="H1007">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-3730383.671577813</v>
       </c>
       <c r="H1008">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-3406275.618877814</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-3404700.469177814</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-3794993.629477814</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-3794993.629477814</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-4019084.502377814</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-3761596.380377814</v>
       </c>
       <c r="H1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-3450586.829377814</v>
       </c>
       <c r="H1045">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-3450586.829377814</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-3819191.619177814</v>
       </c>
       <c r="H1047">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-3540747.924177814</v>
       </c>
       <c r="H1048">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-3540747.924177814</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-3540747.924177814</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-3529687.924177814</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-3546868.924177814</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 DAC ohlcv.xlsx
@@ -3746,7 +3746,7 @@
         <v>918832.6192999997</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>918832.6192999997</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1227028.9533</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>994638.4542999996</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>994638.4542999996</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>994638.4542999996</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1475161.5939</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1160445.503899999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1160445.503899999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1438567.3069</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1526875.0829</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1309172.6699</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1309172.6699</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1309172.6699</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1602295.9489</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1336845.7809</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1558150.7009</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1558150.7009</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1610040.5909</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1431039.9909</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1842547.5429</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1543456.6149</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1764799.9479</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1498479.9349</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1138219.9619</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1659560.0606</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1392984.153599999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-700175.0399000006</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1553913.748977812</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1065726.287977812</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1065726.287977812</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-578552.9729778119</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1071542.200977812</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-834890.6959778122</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-556076.3679778122</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-717625.6319778122</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1050719.617977812</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-657512.0159778122</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-441854.5199778122</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-441854.5199778122</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-612484.3619778121</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-298631.9579778122</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-535433.0039778121</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-535433.0039778121</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-238776.1869778121</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-370799.4359778122</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-710573.9289778122</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-779161.8259778122</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1029809.235977812</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-708932.0169778122</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-708932.0169778122</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-983953.5609778122</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-983953.5609778122</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-722146.2639778121</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-979303.1469778122</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-979303.1469778122</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1415964.993177812</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1024931.567177812</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-710609.791177812</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-991047.458177812</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-737372.5031778121</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>42486.4328221887</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>163636.1061221887</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-19265.72687781134</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-306098.0288778114</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-143666.4658778114</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-195419.5458778114</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-49883.54787781139</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>122566.8251221886</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-47338.78727781141</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>214646.8337221886</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>565722.6410221886</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>298645.2030221886</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>582457.2670221885</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>582457.2670221885</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>451668.7250221885</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>728297.5540221885</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>406594.8800221885</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>651539.6660221885</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>345866.2800221885</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>539999.4250221885</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>839660.9920221885</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>846283.9920221885</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>1501330.595722188</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>1228551.096622189</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>795443.0436221886</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>435617.7972221888</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>467984.9582221889</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>194263.5682221889</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>438563.5312221889</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>866242.2192221889</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>866242.2192221889</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>1163998.633222189</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>1451027.924222189</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>1232715.471222189</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>1232715.471222189</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>993485.9162221889</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>1359840.614222189</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>1061840.476222189</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>1061840.476222189</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>768206.7822221889</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>920713.4912221889</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>704012.4620221889</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>432549.6620221889</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>590257.806022189</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>154616.663022189</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>419803.036022189</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>285995.803022189</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-193836.863977811</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-430856.683277811</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-115591.141277811</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-115591.141277811</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-381743.542277811</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-425110.1046778113</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-655547.3506778113</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-936908.9646778114</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-2047137.777277813</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-2246139.551277813</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-2373897.717277813</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-2209248.070277813</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-1933494.559277813</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-2127727.523277813</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-2019490.529277813</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-2008384.602877813</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-1317252.877777813</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-1566601.755777813</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-1466485.854777813</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-1697567.389777813</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-1338932.488777813</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-1338932.488777813</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-1025258.703577813</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-1438607.497577813</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-1130661.834577813</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-1512877.271577813</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-1792047.098577813</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-1619454.504577813</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-1279303.229577813</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-1580523.899577813</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-1794286.062577813</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-1794286.062577813</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-1485125.509577813</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-1485125.509577813</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-1908954.691577813</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-1627436.450577813</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-1562361.566577813</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-1809447.704577813</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-1593711.685577813</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-1593711.685577813</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-1593711.685577813</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-1593711.685577813</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-1730225.129577813</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-1433836.696577813</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-1949101.039577812</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-1949101.039577812</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-1912133.305577812</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-1586486.287577812</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-1749332.123577812</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-1343195.298577812</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-1688957.873577812</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-1788836.528577812</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-1349893.666577812</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-1559930.707577812</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-1350198.014577812</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-1350198.014577812</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-1618080.894577812</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-1324086.555577812</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-1586828.719577813</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-1586828.719577813</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-1363999.947577813</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-1633127.163577813</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-1343646.581577813</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-1343646.581577813</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-1620631.935577813</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-1394440.659577813</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-1227115.735577813</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-1443422.199577813</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-1443422.199577813</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-1443422.199577813</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-1313828.033577813</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-1313828.033577813</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-1107646.059577813</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-1395780.169577813</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-1109978.170577813</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-1368301.125577813</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-1251572.680577813</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-1251572.680577813</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-875304.9025778128</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-1257026.705577813</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-1509841.213577813</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-1357345.251577813</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-1357345.251577813</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-1608446.074577813</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-1608446.074577813</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-1523553.613577813</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-1956136.004577813</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-2307966.242577813</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-2307966.242577813</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-2097925.243577813</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-2339608.569577813</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-2200671.255577813</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-2200671.255577813</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-2200671.255577813</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-2529507.254577813</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-2819238.518577813</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-2903021.774577813</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-2633992.944577813</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-2549881.355577813</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-2347524.758577813</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-2585633.216577813</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-2342433.271577813</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-2522662.246577813</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-2522662.246577813</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-2522662.246577813</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-2326842.312577813</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-2810690.760577813</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-2504345.836577813</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-3088454.501577813</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-2803806.716577813</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-2970694.386577813</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-3244126.426577813</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-3239166.426577813</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-3713485.326577813</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-3950533.153577813</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-3614359.001577813</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-3614359.001577813</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-3927028.500577813</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-3677836.520577813</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-3955217.648577813</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-3647430.996577813</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-3183516.507577813</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-3183516.507577813</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-3277542.248577813</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-3002180.087577813</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-3198952.367577813</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-3457016.380577813</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-3114100.394577813</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-3114100.394577813</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-3114100.394577813</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-3329501.371577813</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-2946446.355577813</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-3209114.072577813</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-3140031.835577813</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-3455282.467577813</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-3759369.601577813</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-3538166.640577813</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-3803707.229577813</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-3803707.229577813</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-4116553.345577813</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-4116553.345577813</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-3857013.884577813</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-4185901.640577813</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-4057313.664577813</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-4403549.843577813</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-4078726.134577813</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-3795900.256577813</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-4034292.060577813</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-3750313.671577813</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-3750313.671577813</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-3730383.671577813</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-3730383.671577813</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-3472177.433577813</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-3137038.076577813</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-3443348.242577814</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-3686929.022577813</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-3480720.972577814</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-3763039.259577814</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-3763039.259577814</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-3763039.259577814</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-3590657.577577814</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-3590657.577577814</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-3590657.577577814</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-3691793.939877814</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-3691793.939877814</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-3427211.244877814</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-3633884.804877814</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-3319482.897877814</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-3630156.597877814</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-3406275.618877814</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-3404700.469177814</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-3794993.629477814</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-3794993.629477814</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-4019084.502377814</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-3761596.380377814</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-3450586.829377814</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-3450586.829377814</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-3819191.619177814</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-3540747.924177814</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-3540747.924177814</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-3540747.924177814</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-3529687.924177814</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-3546868.924177814</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-3546858.924177814</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-3546858.924177814</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-3191400.474177814</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-3190247.566277814</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-3247780.566277814</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-3097226.575477814</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-3415165.977477814</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-3415165.977477814</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-3389822.977477814</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-3389822.977477814</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
